--- a/docs/gestion/AlbaAlmoril_Tareas.xlsx
+++ b/docs/gestion/AlbaAlmoril_Tareas.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TFG\zenhabits-project\docs\gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{310D63C1-A1E0-45FD-8E48-1ADD4918AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E5028-D3F5-4C01-9F01-9287C90AB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +146,6 @@
     <t>Unas 8</t>
   </si>
   <si>
-    <t>*Es MUY posible que me den brotes y haya semanas que haga MUCHAS más horas</t>
-  </si>
-  <si>
     <t>Uso de widgets predeterminados</t>
   </si>
   <si>
@@ -163,6 +159,15 @@
   </si>
   <si>
     <t>TOTAL REAL</t>
+  </si>
+  <si>
+    <t>5 (ongoing)</t>
+  </si>
+  <si>
+    <t>1 (ongoing)</t>
+  </si>
+  <si>
+    <t>*Es MUY posible que me den brotes y haya semanas que haga MUCHAS más horas u muchas MENOS</t>
   </si>
 </sst>
 </file>
@@ -215,7 +220,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +263,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -383,13 +394,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,9 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -429,9 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -440,6 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -466,17 +491,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB2B2B2"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,6 +572,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -560,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="B16:B17" totalsRowShown="0">
-  <autoFilter ref="B16:B17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="B16:B18" totalsRowShown="0">
+  <autoFilter ref="B16:B18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="HORAS SEMANALES"/>
   </tableColumns>
@@ -570,7 +598,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3D61BF3-8AE4-41A3-89E5-48CB371E1E8B}" name="Tabla3" displayName="Tabla3" ref="D16:E17" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3D61BF3-8AE4-41A3-89E5-48CB371E1E8B}" name="Tabla3" displayName="Tabla3" ref="D16:E17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="D16:E17" xr:uid="{B3D61BF3-8AE4-41A3-89E5-48CB371E1E8B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -907,20 +935,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="70.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="70.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -940,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -961,257 +989,264 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f>SUM(D2:D12)</f>
         <v>81</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f>SUM(E2:E12)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/gestion/AlbaAlmoril_Tareas.xlsx
+++ b/docs/gestion/AlbaAlmoril_Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TFG\zenhabits-project\docs\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E5028-D3F5-4C01-9F01-9287C90AB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7480B3E-068E-48A6-9209-037321B098FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3288" yWindow="1620" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>*Es MUY posible que me den brotes y haya semanas que haga MUCHAS más horas u muchas MENOS</t>
+  </si>
+  <si>
+    <t>10 (ongoing)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -458,13 +464,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -935,20 +941,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="70.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -989,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1003,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1043,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1063,13 +1069,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1082,12 +1088,14 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
       <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1098,12 +1106,12 @@
         <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1116,12 +1124,14 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1134,12 +1144,14 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1185,15 +1197,15 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1203,20 +1215,20 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
@@ -1227,26 +1239,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="19">
         <f>SUM(D2:D12)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="19">
         <f>SUM(E2:E12)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/gestion/AlbaAlmoril_Tareas.xlsx
+++ b/docs/gestion/AlbaAlmoril_Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TFG\zenhabits-project\docs\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7480B3E-068E-48A6-9209-037321B098FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB5B1B-587C-4E82-9C39-B4229EDD1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3288" yWindow="1620" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,19 +161,19 @@
     <t>TOTAL REAL</t>
   </si>
   <si>
-    <t>5 (ongoing)</t>
-  </si>
-  <si>
-    <t>1 (ongoing)</t>
-  </si>
-  <si>
     <t>*Es MUY posible que me den brotes y haya semanas que haga MUCHAS más horas u muchas MENOS</t>
   </si>
   <si>
-    <t>10 (ongoing)</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>media (ongoing)</t>
+  </si>
+  <si>
+    <t>2 (ongoing)</t>
+  </si>
+  <si>
+    <t>12 (ongoing)</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,8 +1048,8 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
+      <c r="E5" s="1">
+        <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
@@ -1068,8 +1068,8 @@
       <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
+      <c r="E6" s="1">
+        <v>7</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>36</v>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>37</v>
@@ -1108,7 +1108,9 @@
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1125,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>20</v>
@@ -1145,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>22</v>
@@ -1182,7 +1184,9 @@
       <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1249,12 +1253,12 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(E2:E12)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>

--- a/docs/gestion/AlbaAlmoril_Tareas.xlsx
+++ b/docs/gestion/AlbaAlmoril_Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TFG\zenhabits-project\docs\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB5B1B-587C-4E82-9C39-B4229EDD1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1FAAE9-E11E-4D74-9F82-ACEAD28325D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3288" yWindow="1620" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Que sea fácil de seguir/utilizar</t>
   </si>
   <si>
-    <t>Crear presentación</t>
-  </si>
-  <si>
     <t>Presentación final del proyecto</t>
   </si>
   <si>
@@ -167,13 +164,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>media (ongoing)</t>
-  </si>
-  <si>
-    <t>2 (ongoing)</t>
-  </si>
-  <si>
-    <t>12 (ongoing)</t>
+    <t>Crear presentación y preparar defensa</t>
   </si>
 </sst>
 </file>
@@ -419,7 +410,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,7 +436,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -941,7 +931,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1001,7 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1031,8 +1021,8 @@
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
+      <c r="F4" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,7 +1041,7 @@
       <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1071,8 +1061,8 @@
       <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>36</v>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1091,8 +1081,8 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
+      <c r="F7" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1108,10 +1098,10 @@
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
@@ -1127,9 +1117,9 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1146,10 +1136,10 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1166,8 +1156,10 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1176,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -1184,11 +1176,11 @@
       <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>27</v>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,17 +1188,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1214,55 +1206,55 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="12" t="s">
+      <c r="D14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="13" t="s">
+    <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="D16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f>SUM(D2:D12)</f>
         <v>82</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f>SUM(E2:E12)</f>
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
